--- a/data/trans_orig/CONS_OTR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Clase-trans_orig.xlsx
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>162718</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_OTR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en País Vasco</t>
+          <t>Consumo de otros medicamentos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en Andalucia</t>
+          <t>Consumo de otros medicamentos en Andalucia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en C.Valenciana</t>
+          <t>Consumo de otros medicamentos en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_OTR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26387</t>
+          <t>26031</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22142</t>
+          <t>22188</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30745</t>
+          <t>30053</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19041</t>
+          <t>21948</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15909</t>
+          <t>18214</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23033</t>
+          <t>25855</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>45427</t>
+          <t>47979</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>40115</t>
+          <t>42333</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>51532</t>
+          <t>54186</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>16,35%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>119423</t>
+          <t>136770</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>115065</t>
+          <t>132748</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>123668</t>
+          <t>140613</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,91%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>123850</t>
+          <t>146619</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>119858</t>
+          <t>142712</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>126982</t>
+          <t>150353</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,67%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>243274</t>
+          <t>283389</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>237169</t>
+          <t>277182</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>248586</t>
+          <t>289035</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>85,52%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>86,11%</t>
+          <t>87,22%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16629</t>
+          <t>17042</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13363</t>
+          <t>13971</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19918</t>
+          <t>20662</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17622</t>
+          <t>19284</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14782</t>
+          <t>16042</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21076</t>
+          <t>22984</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>34251</t>
+          <t>36326</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>30191</t>
+          <t>31859</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>39032</t>
+          <t>41524</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>64543</t>
+          <t>73383</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>61254</t>
+          <t>69763</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67809</t>
+          <t>76454</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>79,51%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>75,46%</t>
+          <t>77,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>83,54%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>91495</t>
+          <t>103384</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>88041</t>
+          <t>99684</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>94335</t>
+          <t>106626</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>84,28%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>80,68%</t>
+          <t>81,26%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>156038</t>
+          <t>176767</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>151257</t>
+          <t>171569</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>160098</t>
+          <t>181234</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>84,13%</t>
+          <t>85,05%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38282</t>
+          <t>31594</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33027</t>
+          <t>27898</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43505</t>
+          <t>35920</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12440</t>
+          <t>13396</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9830</t>
+          <t>10822</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15424</t>
+          <t>16338</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>50722</t>
+          <t>44990</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>44958</t>
+          <t>40192</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>56895</t>
+          <t>50437</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>23,4%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>125574</t>
+          <t>122290</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>120351</t>
+          <t>117964</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>130829</t>
+          <t>125986</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,64%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,84%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50705</t>
+          <t>48221</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47721</t>
+          <t>45279</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53315</t>
+          <t>50795</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>80,3%</t>
+          <t>78,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>73,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>84,43%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>176279</t>
+          <t>170511</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>170106</t>
+          <t>165064</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>182043</t>
+          <t>175309</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>77,66%</t>
+          <t>79,12%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>80,19%</t>
+          <t>81,35%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35681</t>
+          <t>34005</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31130</t>
+          <t>29856</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40619</t>
+          <t>38683</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32647</t>
+          <t>32791</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28368</t>
+          <t>28592</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37124</t>
+          <t>37395</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>68328</t>
+          <t>66796</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>61752</t>
+          <t>60929</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>75522</t>
+          <t>73548</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>20,9%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>134408</t>
+          <t>135714</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>129470</t>
+          <t>131036</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>138959</t>
+          <t>139863</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,02%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,12%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>144536</t>
+          <t>149399</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>140059</t>
+          <t>144795</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>148815</t>
+          <t>153598</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>81,57%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>84,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>278943</t>
+          <t>285113</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>271749</t>
+          <t>278361</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>285519</t>
+          <t>290980</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>80,32%</t>
+          <t>81,02%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>82,69%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13868</t>
+          <t>12237</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11429</t>
+          <t>9628</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17310</t>
+          <t>14998</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31077</t>
+          <t>26573</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26870</t>
+          <t>23060</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>35641</t>
+          <t>30640</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>44945</t>
+          <t>38810</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39847</t>
+          <t>34106</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>50748</t>
+          <t>43803</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62983</t>
+          <t>62214</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59541</t>
+          <t>59453</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>65422</t>
+          <t>64823</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>101855</t>
+          <t>98843</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>97291</t>
+          <t>94776</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>106062</t>
+          <t>102356</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>73,19%</t>
+          <t>75,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>164838</t>
+          <t>161057</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>159035</t>
+          <t>156064</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>169936</t>
+          <t>165761</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>82,94%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26466</t>
+          <t>26965</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22564</t>
+          <t>23184</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>30543</t>
+          <t>31031</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>29731</t>
+          <t>29792</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>25572</t>
+          <t>25473</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>34185</t>
+          <t>34320</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>19,26%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>41997</t>
+          <t>52777</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>39992</t>
+          <t>50966</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>43343</t>
+          <t>53991</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>91811</t>
+          <t>95636</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>87734</t>
+          <t>91570</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>95713</t>
+          <t>99417</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>77,62%</t>
+          <t>78,01%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>74,18%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>81,09%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>133807</t>
+          <t>148412</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>129353</t>
+          <t>143884</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>137966</t>
+          <t>152731</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>80,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>85,71%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>134111</t>
+          <t>123736</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>124616</t>
+          <t>115658</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>143591</t>
+          <t>132002</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>139293</t>
+          <t>140957</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>130523</t>
+          <t>131420</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>148415</t>
+          <t>149886</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>273404</t>
+          <t>264693</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>252974</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>287513</t>
+          <t>277332</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>18,61%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>548928</t>
+          <t>583147</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>539448</t>
+          <t>574881</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>558423</t>
+          <t>591225</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>80,37%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>78,98%</t>
+          <t>81,33%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>81,76%</t>
+          <t>83,64%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>604251</t>
+          <t>642102</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>595129</t>
+          <t>633173</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>613021</t>
+          <t>651639</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>81,27%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>80,04%</t>
+          <t>80,86%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,45%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1153179</t>
+          <t>1225248</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1139070</t>
+          <t>1212609</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1166472</t>
+          <t>1236967</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>79,85%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>83,02%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>749</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7654</t>
+          <t>7778</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14838</t>
+          <t>14964</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30622</t>
+          <t>30943</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16665</t>
+          <t>17412</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>34853</t>
+          <t>34434</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>359029</t>
+          <t>358905</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>365877</t>
+          <t>365934</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>99,8%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>268279</t>
+          <t>267958</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>284063</t>
+          <t>283937</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>630731</t>
+          <t>631150</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>648919</t>
+          <t>648172</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>97,38%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>880</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7555</t>
+          <t>8324</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>11901</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26820</t>
+          <t>26118</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>14029</t>
+          <t>14409</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>30044</t>
+          <t>30900</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>316492</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>323145</t>
+          <t>323167</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>233261</t>
+          <t>233963</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>248479</t>
+          <t>248180</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>554084</t>
+          <t>553228</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>570099</t>
+          <t>569719</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>97,53%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>602</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18250</t>
+          <t>17968</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7148</t>
+          <t>7684</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21523</t>
+          <t>21226</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>5232</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39845</t>
+          <t>39498</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>457174</t>
+          <t>457456</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>474600</t>
+          <t>474822</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76041</t>
+          <t>76338</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90416</t>
+          <t>89880</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>78,24%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>533143</t>
+          <t>533490</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>567402</t>
+          <t>567756</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>99,09%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7124</t>
+          <t>7474</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20532</t>
+          <t>19922</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8821</t>
+          <t>9772</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43322</t>
+          <t>43699</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>22926</t>
+          <t>21716</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>53398</t>
+          <t>52728</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>515623</t>
+          <t>516233</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>529031</t>
+          <t>528681</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>593316</t>
+          <t>592939</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>627817</t>
+          <t>626866</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1119395</t>
+          <t>1120065</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1149867</t>
+          <t>1151077</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>98,15%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10257</t>
+          <t>10216</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21496</t>
+          <t>20378</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>54454</t>
+          <t>53451</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>27998</t>
+          <t>27429</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>62555</t>
+          <t>60356</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>201962</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>210733</t>
+          <t>210719</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>369495</t>
+          <t>370498</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>402453</t>
+          <t>403571</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>87,39%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>573613</t>
+          <t>575812</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>608170</t>
+          <t>608739</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>95,69%</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34610</t>
+          <t>34829</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>56542</t>
+          <t>56498</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>34509</t>
+          <t>35120</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>56061</t>
+          <t>57652</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,78%</t>
         </is>
       </c>
     </row>
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>433426</t>
+          <t>433470</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>455358</t>
+          <t>455139</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>600668</t>
+          <t>599077</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>622220</t>
+          <t>621609</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>94,65%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20198</t>
+          <t>19294</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>41996</t>
+          <t>41876</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>113660</t>
+          <t>113014</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>188853</t>
+          <t>190890</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>149961</t>
+          <t>146995</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>222503</t>
+          <t>221787</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2039293</t>
+          <t>2039413</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2061091</t>
+          <t>2061995</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2018248</t>
+          <t>2016211</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2093441</t>
+          <t>2094087</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4065887</t>
+          <t>4066603</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4138429</t>
+          <t>4141395</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,57%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_OTR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_OTR-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de otros medicamentos en Andalucia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26031</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22188</t>
+          <t>897</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30053</t>
+          <t>8643</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21948</t>
+          <t>22871</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18214</t>
+          <t>16024</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25855</t>
+          <t>32892</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>47979</t>
+          <t>26209</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>42333</t>
+          <t>18595</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>54186</t>
+          <t>36553</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>136770</t>
+          <t>392049</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>132748</t>
+          <t>386744</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>140613</t>
+          <t>394490</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>99,77%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>423</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>146619</t>
+          <t>304755</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>142712</t>
+          <t>294734</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>150353</t>
+          <t>311602</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>818</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>283389</t>
+          <t>696804</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>277182</t>
+          <t>686460</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>289035</t>
+          <t>704418</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>85,52%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>97,43%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17042</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13971</t>
+          <t>852</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20662</t>
+          <t>9007</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19284</t>
+          <t>18894</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16042</t>
+          <t>13029</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22984</t>
+          <t>27791</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>36326</t>
+          <t>22285</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>31859</t>
+          <t>15287</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>41524</t>
+          <t>32535</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73383</t>
+          <t>340956</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>69763</t>
+          <t>335340</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76454</t>
+          <t>343495</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>81,15%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,55%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>366</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>103384</t>
+          <t>268046</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>99684</t>
+          <t>259149</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>106626</t>
+          <t>273911</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>696</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>176767</t>
+          <t>609002</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>171569</t>
+          <t>598752</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>181234</t>
+          <t>616000</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>80,51%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>97,58%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31594</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27898</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35920</t>
+          <t>13362</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13396</t>
+          <t>14229</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10822</t>
+          <t>8343</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16338</t>
+          <t>24046</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>44990</t>
+          <t>21849</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>40192</t>
+          <t>14273</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>50437</t>
+          <t>33917</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>9,12%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>122290</t>
+          <t>252936</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>117964</t>
+          <t>247194</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>125986</t>
+          <t>256911</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,66%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,87%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48221</t>
+          <t>97257</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45279</t>
+          <t>87440</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50795</t>
+          <t>103143</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>78,26%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>73,48%</t>
+          <t>78,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>399</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>170511</t>
+          <t>350194</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>165064</t>
+          <t>338126</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>175309</t>
+          <t>357770</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>79,12%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>76,6%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34005</t>
+          <t>14201</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29856</t>
+          <t>8369</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38683</t>
+          <t>22197</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32791</t>
+          <t>28476</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28592</t>
+          <t>20813</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37395</t>
+          <t>38260</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>66796</t>
+          <t>42678</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>60929</t>
+          <t>33059</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>73548</t>
+          <t>56079</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>135714</t>
+          <t>595781</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>131036</t>
+          <t>587785</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>139863</t>
+          <t>601613</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>77,21%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>630</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>149399</t>
+          <t>461677</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>144795</t>
+          <t>451893</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>153598</t>
+          <t>469340</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>285113</t>
+          <t>1057457</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>278361</t>
+          <t>1044056</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>290980</t>
+          <t>1067076</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,02%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>82,69%</t>
+          <t>96,99%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12237</t>
+          <t>4665</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9628</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14998</t>
+          <t>11206</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26573</t>
+          <t>37162</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23060</t>
+          <t>28413</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>30640</t>
+          <t>47503</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>38810</t>
+          <t>41827</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>34106</t>
+          <t>32624</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>43803</t>
+          <t>53750</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>8,12%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62214</t>
+          <t>249664</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59453</t>
+          <t>243123</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>64823</t>
+          <t>252698</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,56%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,86%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>527</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>98843</t>
+          <t>370857</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>94776</t>
+          <t>360516</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>102356</t>
+          <t>379606</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>81,61%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>755</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>161057</t>
+          <t>620521</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>156064</t>
+          <t>608598</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>165761</t>
+          <t>629724</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>80,58%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>78,08%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>82,94%</t>
+          <t>95,07%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>818</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>662348</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>662348</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>662348</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4637</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26965</t>
+          <t>49655</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23184</t>
+          <t>38816</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>31031</t>
+          <t>62696</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>29792</t>
+          <t>49655</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>25473</t>
+          <t>39208</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>34320</t>
+          <t>64828</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>52777</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>50966</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>53991</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>624</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>95636</t>
+          <t>497219</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>91570</t>
+          <t>484178</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>99417</t>
+          <t>508058</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>78,01%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>74,69%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>81,09%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>702</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>148412</t>
+          <t>666716</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>143884</t>
+          <t>651543</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>152731</t>
+          <t>677163</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>83,28%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,74%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>94,53%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>123736</t>
+          <t>33215</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>115658</t>
+          <t>24321</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>132002</t>
+          <t>45239</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>140957</t>
+          <t>171287</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>131420</t>
+          <t>151681</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>149886</t>
+          <t>195971</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>264693</t>
+          <t>204501</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>252974</t>
+          <t>180183</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>277332</t>
+          <t>232153</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>583147</t>
+          <t>2000882</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>574881</t>
+          <t>1988858</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>591225</t>
+          <t>2009776</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>81,33%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>83,64%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3554</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>642102</t>
+          <t>1999812</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>633173</t>
+          <t>1975128</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>651639</t>
+          <t>2019418</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>80,86%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>6782</t>
+          <t>4545</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1225248</t>
+          <t>4000696</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1212609</t>
+          <t>3973044</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1236967</t>
+          <t>4025014</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>81,39%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>95,72%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4832</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4205197</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4205197</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4205197</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en Andalucia (tasa de respuesta: 99,92%)</t>
+          <t>Consumo de otros medicamentos en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>22913</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>17208</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7778</t>
+          <t>31709</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21428</t>
+          <t>22661</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14964</t>
+          <t>16328</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30943</t>
+          <t>30379</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>24398</t>
+          <t>45574</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>17412</t>
+          <t>36193</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>34434</t>
+          <t>56549</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>363713</t>
+          <t>272610</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>358905</t>
+          <t>263814</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>365934</t>
+          <t>278315</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>429</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>277473</t>
+          <t>254039</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>267958</t>
+          <t>246321</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>283937</t>
+          <t>260372</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>900</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>641186</t>
+          <t>526648</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>631150</t>
+          <t>515673</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>648172</t>
+          <t>536029</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>93,68%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3160</t>
+          <t>11011</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>6949</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8324</t>
+          <t>16656</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17726</t>
+          <t>17606</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11901</t>
+          <t>12442</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26118</t>
+          <t>24877</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>20887</t>
+          <t>28617</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>14409</t>
+          <t>21778</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>30900</t>
+          <t>37998</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>8,88%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>320887</t>
+          <t>184761</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>179116</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>323167</t>
+          <t>188823</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>364</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>242355</t>
+          <t>214373</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>233963</t>
+          <t>207102</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>248180</t>
+          <t>219537</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,96%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>685</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>563241</t>
+          <t>399133</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>553228</t>
+          <t>389752</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>569719</t>
+          <t>405972</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>94,91%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7027</t>
+          <t>20989</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>15256</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17968</t>
+          <t>27663</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12693</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7684</t>
+          <t>7151</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21226</t>
+          <t>18622</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>19720</t>
+          <t>32610</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5232</t>
+          <t>25339</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39498</t>
+          <t>40955</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>15,53%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>468397</t>
+          <t>159882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>457456</t>
+          <t>153208</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>474822</t>
+          <t>165615</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84871</t>
+          <t>71179</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76338</t>
+          <t>64178</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89880</t>
+          <t>75649</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>85,97%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>78,24%</t>
+          <t>77,51%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>437</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>553268</t>
+          <t>231062</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>533490</t>
+          <t>222717</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>567756</t>
+          <t>238333</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>90,39%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12790</t>
+          <t>33196</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7474</t>
+          <t>25249</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19922</t>
+          <t>42346</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25853</t>
+          <t>28652</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9772</t>
+          <t>21783</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43699</t>
+          <t>39048</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>118</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>38644</t>
+          <t>61848</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21716</t>
+          <t>51139</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>52728</t>
+          <t>74685</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>523365</t>
+          <t>275237</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>516233</t>
+          <t>266087</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>528681</t>
+          <t>283184</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>86,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>504</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>610785</t>
+          <t>287311</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>592939</t>
+          <t>276915</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>626866</t>
+          <t>294180</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1134149</t>
+          <t>562548</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1120065</t>
+          <t>549711</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1151077</t>
+          <t>573257</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>88,04%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>91,81%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4343</t>
+          <t>11026</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>6611</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10216</t>
+          <t>16172</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>37093</t>
+          <t>20406</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>20378</t>
+          <t>13846</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>53451</t>
+          <t>27901</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>41435</t>
+          <t>31433</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>27429</t>
+          <t>23537</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>60356</t>
+          <t>40666</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>207876</t>
+          <t>139867</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>134721</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>210719</t>
+          <t>144282</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>231</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>386856</t>
+          <t>134662</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>370498</t>
+          <t>127167</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>403571</t>
+          <t>141222</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>86,84%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>87,39%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>469</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>594733</t>
+          <t>274529</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>575812</t>
+          <t>265296</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>608739</t>
+          <t>282425</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>92,31%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>636168</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>636168</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>636168</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44236</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34829</t>
+          <t>292</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>56498</t>
+          <t>4943</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>44236</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>35120</t>
+          <t>956</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>57652</t>
+          <t>6716</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>32,32%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>8397</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6079</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>89,82%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>65,03%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>445732</t>
+          <t>9592</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>433470</t>
+          <t>6491</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>455139</t>
+          <t>11142</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>56,77%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>612493</t>
+          <t>17989</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>599077</t>
+          <t>14066</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>621609</t>
+          <t>19826</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>95,4%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30290</t>
+          <t>100087</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19294</t>
+          <t>86021</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>41876</t>
+          <t>116765</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>159030</t>
+          <t>102787</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>113014</t>
+          <t>87597</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>190890</t>
+          <t>118918</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>390</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>189320</t>
+          <t>202874</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>146995</t>
+          <t>181449</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>221787</t>
+          <t>226488</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2050999</t>
+          <t>1040752</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2039413</t>
+          <t>1024074</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2061995</t>
+          <t>1054818</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2717</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2048071</t>
+          <t>971158</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2016211</t>
+          <t>955027</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2094087</t>
+          <t>986348</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>88,93%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4099070</t>
+          <t>2011910</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4066603</t>
+          <t>1988296</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4141395</t>
+          <t>2033335</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>91,81%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>2065</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>1140839</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>1140839</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>1140839</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4832</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4288390</t>
+          <t>2214784</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4288390</t>
+          <t>2214784</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4288390</t>
+          <t>2214784</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos en C.Valenciana (tasa de respuesta: 99,77%)</t>
+          <t>Consumo de otros medicamentos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22913</t>
+          <t>26031</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17208</t>
+          <t>22188</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31709</t>
+          <t>30053</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22661</t>
+          <t>21948</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16328</t>
+          <t>18214</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30379</t>
+          <t>25855</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>277</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>45574</t>
+          <t>47979</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>36193</t>
+          <t>42333</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>56549</t>
+          <t>54186</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>16,35%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>701</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>272610</t>
+          <t>136770</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>263814</t>
+          <t>132748</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>278315</t>
+          <t>140613</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>254039</t>
+          <t>146619</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>246321</t>
+          <t>142712</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>260372</t>
+          <t>150353</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>526648</t>
+          <t>283389</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>515673</t>
+          <t>277182</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>536029</t>
+          <t>289035</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>85,52%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>87,22%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11011</t>
+          <t>17042</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6949</t>
+          <t>13971</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16656</t>
+          <t>20662</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17606</t>
+          <t>19284</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12442</t>
+          <t>16042</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24877</t>
+          <t>22984</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>28617</t>
+          <t>36326</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>21778</t>
+          <t>31859</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>37998</t>
+          <t>41524</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>184761</t>
+          <t>73383</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>179116</t>
+          <t>69763</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>188823</t>
+          <t>76454</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>77,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>557</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>214373</t>
+          <t>103384</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>207102</t>
+          <t>99684</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>219537</t>
+          <t>106626</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>84,28%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>81,26%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>955</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>399133</t>
+          <t>176767</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>389752</t>
+          <t>171569</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>405972</t>
+          <t>181234</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>85,05%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20989</t>
+          <t>31594</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15256</t>
+          <t>27898</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27663</t>
+          <t>35920</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>13396</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7151</t>
+          <t>10822</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18622</t>
+          <t>16338</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>284</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>32610</t>
+          <t>44990</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>25339</t>
+          <t>40192</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>40955</t>
+          <t>50437</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>23,4%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>717</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>159882</t>
+          <t>122290</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>153208</t>
+          <t>117964</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>165615</t>
+          <t>125986</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>288</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71179</t>
+          <t>48221</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64178</t>
+          <t>45279</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>75649</t>
+          <t>50795</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,97%</t>
+          <t>78,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>77,51%</t>
+          <t>73,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>231062</t>
+          <t>170511</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>222717</t>
+          <t>165064</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>238333</t>
+          <t>175309</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>79,12%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>84,47%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>81,35%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33196</t>
+          <t>34005</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25249</t>
+          <t>29856</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42346</t>
+          <t>38683</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>197</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28652</t>
+          <t>32791</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21783</t>
+          <t>28592</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>39048</t>
+          <t>37395</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>61848</t>
+          <t>66796</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>51139</t>
+          <t>60929</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>74685</t>
+          <t>73548</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>20,9%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>793</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>275237</t>
+          <t>135714</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>266087</t>
+          <t>131036</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>283184</t>
+          <t>139863</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,27%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>842</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>287311</t>
+          <t>149399</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>276915</t>
+          <t>144795</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>294180</t>
+          <t>153598</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>84,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>562548</t>
+          <t>285113</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>549711</t>
+          <t>278361</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>573257</t>
+          <t>290980</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>81,02%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,04%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>82,69%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11026</t>
+          <t>12237</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6611</t>
+          <t>9628</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16172</t>
+          <t>14998</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>169</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20406</t>
+          <t>26573</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>13846</t>
+          <t>23060</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27901</t>
+          <t>30640</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>252</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>31433</t>
+          <t>38810</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>23537</t>
+          <t>34106</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>40666</t>
+          <t>43803</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>139867</t>
+          <t>62214</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>134721</t>
+          <t>59453</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>144282</t>
+          <t>64823</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>577</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>134662</t>
+          <t>98843</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>127167</t>
+          <t>94776</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>141222</t>
+          <t>102356</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,84%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>75,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>945</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>274529</t>
+          <t>161057</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>265296</t>
+          <t>156064</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>282425</t>
+          <t>165761</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>82,94%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>158</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>26965</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>23184</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4943</t>
+          <t>31031</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>43,23%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>175</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>29792</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>25473</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>6716</t>
+          <t>34320</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>19,26%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8397</t>
+          <t>52777</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6079</t>
+          <t>50966</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>53991</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>65,03%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>535</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9592</t>
+          <t>95636</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6491</t>
+          <t>91570</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11142</t>
+          <t>99417</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>78,01%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>56,77%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>81,09%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>786</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>17989</t>
+          <t>148412</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>14066</t>
+          <t>143884</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>19826</t>
+          <t>152731</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>80,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>85,71%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>765</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>100087</t>
+          <t>123736</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>86021</t>
+          <t>115658</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>116765</t>
+          <t>132002</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>842</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>102787</t>
+          <t>140957</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>87597</t>
+          <t>131420</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>118918</t>
+          <t>149886</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>202874</t>
+          <t>264693</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>181449</t>
+          <t>252974</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>226488</t>
+          <t>277332</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>18,61%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1040752</t>
+          <t>583147</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1024074</t>
+          <t>574881</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1054818</t>
+          <t>591225</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>81,33%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>83,64%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>971158</t>
+          <t>642102</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>955027</t>
+          <t>633173</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>986348</t>
+          <t>651639</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>88,93%</t>
+          <t>80,86%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3535</t>
+          <t>6782</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2011910</t>
+          <t>1225248</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1988296</t>
+          <t>1212609</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2033335</t>
+          <t>1236967</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>83,02%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140839</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140839</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140839</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214784</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214784</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214784</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
